--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>211.0470715363444</v>
+        <v>261.2427814755899</v>
       </c>
       <c r="R2">
-        <v>1899.4236438271</v>
+        <v>2351.18503328031</v>
       </c>
       <c r="S2">
-        <v>0.0002126658564905912</v>
+        <v>0.0009451199075982174</v>
       </c>
       <c r="T2">
-        <v>0.0002126658564905912</v>
+        <v>0.0009451199075982173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>5711.531943608811</v>
+        <v>7562.043919274085</v>
       </c>
       <c r="R3">
-        <v>51403.7874924793</v>
+        <v>68058.39527346675</v>
       </c>
       <c r="S3">
-        <v>0.005755340852724244</v>
+        <v>0.02735784012813304</v>
       </c>
       <c r="T3">
-        <v>0.005755340852724244</v>
+        <v>0.02735784012813303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>7795.526673669077</v>
+        <v>5277.862487805344</v>
       </c>
       <c r="R4">
-        <v>70159.7400630217</v>
+        <v>47500.7623902481</v>
       </c>
       <c r="S4">
-        <v>0.007855320354755961</v>
+        <v>0.01909416550618366</v>
       </c>
       <c r="T4">
-        <v>0.007855320354755961</v>
+        <v>0.01909416550618366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>546.3482675995111</v>
+        <v>804.7104441982199</v>
       </c>
       <c r="R5">
-        <v>4917.1344083956</v>
+        <v>7242.393997783979</v>
       </c>
       <c r="S5">
-        <v>0.0005505388983859544</v>
+        <v>0.002911268423832053</v>
       </c>
       <c r="T5">
-        <v>0.0005505388983859544</v>
+        <v>0.002911268423832052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>5849.192081058011</v>
+        <v>5357.69402001885</v>
       </c>
       <c r="R6">
-        <v>52642.7287295221</v>
+        <v>48219.24618016965</v>
       </c>
       <c r="S6">
-        <v>0.005894056878595302</v>
+        <v>0.01938297873165493</v>
       </c>
       <c r="T6">
-        <v>0.005894056878595301</v>
+        <v>0.01938297873165493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1148.171634935347</v>
+        <v>1073.458346427654</v>
       </c>
       <c r="R7">
-        <v>10333.54471441813</v>
+        <v>9661.125117848886</v>
       </c>
       <c r="S7">
-        <v>0.001156978404695269</v>
+        <v>0.003883540235851595</v>
       </c>
       <c r="T7">
-        <v>0.001156978404695269</v>
+        <v>0.003883540235851596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>31072.77879735691</v>
+        <v>31072.7787973569</v>
       </c>
       <c r="R8">
-        <v>279655.0091762122</v>
+        <v>279655.0091762121</v>
       </c>
       <c r="S8">
-        <v>0.03131111494880233</v>
+        <v>0.112414596337935</v>
       </c>
       <c r="T8">
-        <v>0.03131111494880234</v>
+        <v>0.112414596337935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>42410.45630688767</v>
+        <v>21686.97449487786</v>
       </c>
       <c r="R9">
-        <v>381694.1067619891</v>
+        <v>195182.7704539007</v>
       </c>
       <c r="S9">
-        <v>0.0427357553412337</v>
+        <v>0.07845878540609183</v>
       </c>
       <c r="T9">
-        <v>0.04273575534123371</v>
+        <v>0.07845878540609184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>2972.330196705893</v>
+        <v>3306.591431552332</v>
       </c>
       <c r="R10">
-        <v>26750.97177035304</v>
+        <v>29759.32288397099</v>
       </c>
       <c r="S10">
-        <v>0.002995128728646916</v>
+        <v>0.01196253297642141</v>
       </c>
       <c r="T10">
-        <v>0.002995128728646917</v>
+        <v>0.01196253297642141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>31821.6992345365</v>
+        <v>22015.00585359581</v>
       </c>
       <c r="R11">
-        <v>286395.2931108286</v>
+        <v>198135.0526823623</v>
       </c>
       <c r="S11">
-        <v>0.03206577979705956</v>
+        <v>0.07964553194771752</v>
       </c>
       <c r="T11">
-        <v>0.03206577979705956</v>
+        <v>0.07964553194771752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>4073.66232271809</v>
+        <v>1542.259642270333</v>
       </c>
       <c r="R12">
-        <v>36662.96090446282</v>
+        <v>13880.336780433</v>
       </c>
       <c r="S12">
-        <v>0.004104908353419646</v>
+        <v>0.005579561978179269</v>
       </c>
       <c r="T12">
-        <v>0.004104908353419647</v>
+        <v>0.005579561978179269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>110244.8487643348</v>
+        <v>44642.89916030439</v>
       </c>
       <c r="R13">
-        <v>992203.6388790131</v>
+        <v>401786.0924427395</v>
       </c>
       <c r="S13">
-        <v>0.1110904549182784</v>
+        <v>0.1615083582060461</v>
       </c>
       <c r="T13">
-        <v>0.1110904549182785</v>
+        <v>0.1615083582060461</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>150470.4285403971</v>
+        <v>31158.12144710016</v>
       </c>
       <c r="R14">
-        <v>1354233.856863574</v>
+        <v>280423.0930239015</v>
       </c>
       <c r="S14">
-        <v>0.1516245751675315</v>
+        <v>0.1127233475952289</v>
       </c>
       <c r="T14">
-        <v>0.1516245751675316</v>
+        <v>0.1127233475952289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>10545.69644866715</v>
+        <v>4750.647787434888</v>
       </c>
       <c r="R15">
-        <v>94911.26803800435</v>
+        <v>42755.830086914</v>
       </c>
       <c r="S15">
-        <v>0.0106265846345059</v>
+        <v>0.01718681669415493</v>
       </c>
       <c r="T15">
-        <v>0.0106265846345059</v>
+        <v>0.01718681669415493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>112901.9854456672</v>
+        <v>31629.41083399945</v>
       </c>
       <c r="R16">
-        <v>1016117.869011005</v>
+        <v>284664.697505995</v>
       </c>
       <c r="S16">
-        <v>0.1137679725167674</v>
+        <v>0.1144283707131208</v>
       </c>
       <c r="T16">
-        <v>0.1137679725167674</v>
+        <v>0.1144283707131208</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>293.151819335088</v>
+        <v>152.432772901962</v>
       </c>
       <c r="R17">
-        <v>2638.366374015793</v>
+        <v>1371.894956117658</v>
       </c>
       <c r="S17">
-        <v>0.0002954003686800051</v>
+        <v>0.0005514688192580884</v>
       </c>
       <c r="T17">
-        <v>0.0002954003686800051</v>
+        <v>0.0005514688192580883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>7933.519135189968</v>
+        <v>4412.383442369204</v>
       </c>
       <c r="R18">
-        <v>71401.6722167097</v>
+        <v>39711.45098132284</v>
       </c>
       <c r="S18">
-        <v>0.007994371253709238</v>
+        <v>0.01596304942010252</v>
       </c>
       <c r="T18">
-        <v>0.007994371253709239</v>
+        <v>0.01596304942010252</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>10828.26125198212</v>
+        <v>3079.584474898072</v>
       </c>
       <c r="R19">
-        <v>97454.35126783908</v>
+        <v>27716.26027408264</v>
       </c>
       <c r="S19">
-        <v>0.01091131678204828</v>
+        <v>0.01114127088188475</v>
       </c>
       <c r="T19">
-        <v>0.01091131678204828</v>
+        <v>0.01114127088188475</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>758.8969961603497</v>
+        <v>469.541181958996</v>
       </c>
       <c r="R20">
-        <v>6830.072965443148</v>
+        <v>4225.870637630965</v>
       </c>
       <c r="S20">
-        <v>0.0007647179299940413</v>
+        <v>0.001698698490347032</v>
       </c>
       <c r="T20">
-        <v>0.0007647179299940415</v>
+        <v>0.001698698490347031</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>8124.733917036404</v>
+        <v>3126.165443572431</v>
       </c>
       <c r="R21">
-        <v>73122.60525332764</v>
+        <v>28135.48899215188</v>
       </c>
       <c r="S21">
-        <v>0.008187052701781503</v>
+        <v>0.01130979075661843</v>
       </c>
       <c r="T21">
-        <v>0.008187052701781503</v>
+        <v>0.01130979075661843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>4686.828557771604</v>
+        <v>719.1734798456373</v>
       </c>
       <c r="R22">
-        <v>42181.45701994444</v>
+        <v>6472.561318610737</v>
       </c>
       <c r="S22">
-        <v>0.004722777730139762</v>
+        <v>0.002601814178288818</v>
       </c>
       <c r="T22">
-        <v>0.004722777730139762</v>
+        <v>0.002601814178288817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>126838.8650316839</v>
+        <v>20817.4993753006</v>
       </c>
       <c r="R23">
-        <v>1141549.785285155</v>
+        <v>187357.4943777054</v>
       </c>
       <c r="S23">
-        <v>0.1278117515296218</v>
+        <v>0.0753132123876443</v>
       </c>
       <c r="T23">
-        <v>0.1278117515296218</v>
+        <v>0.07531321238764428</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>173119.1850758782</v>
+        <v>14529.3918173061</v>
       </c>
       <c r="R24">
-        <v>1558072.665682904</v>
+        <v>130764.5263557549</v>
       </c>
       <c r="S24">
-        <v>0.1744470534516497</v>
+        <v>0.0525641986135174</v>
       </c>
       <c r="T24">
-        <v>0.1744470534516497</v>
+        <v>0.0525641986135174</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>12133.03100788804</v>
+        <v>2215.281919574255</v>
       </c>
       <c r="R25">
-        <v>109197.2790709923</v>
+        <v>19937.53727616829</v>
       </c>
       <c r="S25">
-        <v>0.01222609445530762</v>
+        <v>0.008014411082694942</v>
       </c>
       <c r="T25">
-        <v>0.01222609445530762</v>
+        <v>0.00801441108269494</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>129895.9530015237</v>
+        <v>14749.15950045167</v>
       </c>
       <c r="R26">
-        <v>1169063.577013714</v>
+        <v>132742.435504065</v>
       </c>
       <c r="S26">
-        <v>0.1308922881451753</v>
+        <v>0.05335927058149455</v>
       </c>
       <c r="T26">
-        <v>0.1308922881451753</v>
+        <v>0.05335927058149454</v>
       </c>
     </row>
   </sheetData>
